--- a/Input_files/Actual_testcases/Kaman/ECTEST/KFP/ALL_PAGES/END_TO_END/TC30_Verify_pagination_SortBy_filteronPLP.xlsx
+++ b/Input_files/Actual_testcases/Kaman/ECTEST/KFP/ALL_PAGES/END_TO_END/TC30_Verify_pagination_SortBy_filteronPLP.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ROhit\Rohit\Automation\Demo\KAMAN_Muitisite\Input_files\Actual_testcases\Kaman\ECTEST\KFP\ALL_PAGES\END_TO_END\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AE9C9B7-F63C-466A-A3BF-45F2E54DAA14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11A21944-4BEA-47AA-B3C3-A54BE4EE5AAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -113,10 +113,10 @@
     <t>TINY_SCROLL_DOWN</t>
   </si>
   <si>
-    <t>Host&amp;Fittings</t>
-  </si>
-  <si>
-    <t>HostFittngs_L2</t>
+    <t>Hydraulics</t>
+  </si>
+  <si>
+    <t>Cylinder_Repair_kit</t>
   </si>
 </sst>
 </file>
@@ -538,10 +538,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -607,8 +607,8 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
-      <c r="B5" s="2" t="s">
-        <v>11</v>
+      <c r="B5" s="6" t="s">
+        <v>7</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>30</v>
@@ -619,46 +619,38 @@
       <c r="E5" s="2"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="2"/>
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="6"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="2" t="s">
+      <c r="D8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="6"/>
-      <c r="B8" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -667,19 +659,19 @@
         <v>12</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
       <c r="B10" s="6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>19</v>
@@ -687,79 +679,79 @@
       <c r="D10" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="6"/>
+      <c r="E10" s="6" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="6"/>
       <c r="B11" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E11" s="6" t="s">
-        <v>17</v>
-      </c>
+      <c r="E11" s="6"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="7"/>
+      <c r="A12" s="6"/>
       <c r="B12" s="6" t="s">
         <v>12</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
       <c r="B13" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13" s="6"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="6"/>
+        <v>12</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
-      <c r="B14" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E14" s="7"/>
+      <c r="B14" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="6"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="6"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="7"/>
       <c r="B15" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D15" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>22</v>
-      </c>
+      <c r="E15" s="7"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
       <c r="B16" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>22</v>
@@ -767,22 +759,22 @@
       <c r="D16" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E16" s="7"/>
+      <c r="E16" s="7" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
       <c r="B17" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D17" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>23</v>
-      </c>
+      <c r="E17" s="7"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="7"/>
@@ -790,42 +782,42 @@
         <v>12</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D18" s="9" t="s">
         <v>9</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="7"/>
       <c r="B19" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D19" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E19" s="7"/>
+      <c r="E19" s="7" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="7"/>
       <c r="B20" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D20" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E20" s="7" t="s">
-        <v>25</v>
-      </c>
+      <c r="E20" s="7"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="7"/>
@@ -833,19 +825,19 @@
         <v>12</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D21" s="9" t="s">
         <v>9</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="7"/>
       <c r="B22" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C22" s="7" t="s">
         <v>26</v>
@@ -853,7 +845,9 @@
       <c r="D22" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E22" s="7"/>
+      <c r="E22" s="7" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="7"/>
@@ -861,7 +855,7 @@
         <v>11</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D23" s="9" t="s">
         <v>9</v>
@@ -871,7 +865,7 @@
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="7"/>
       <c r="B24" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C24" s="7" t="s">
         <v>27</v>
@@ -879,7 +873,20 @@
       <c r="D24" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E24" s="7" t="s">
+      <c r="E24" s="7"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="7"/>
+      <c r="B25" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E25" s="7" t="s">
         <v>27</v>
       </c>
     </row>
